--- a/Zweites Ausbildungsjahr/BP/ABC_Schülervorlage_neu (1) (2).xlsx
+++ b/Zweites Ausbildungsjahr/BP/ABC_Schülervorlage_neu (1) (2).xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahd/DEV/OSZIMT-repo-ITA12_aps/Zweites Ausbildungsjahr/BP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB062EC1-0741-D64E-BD7B-4CCC5371A921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4D59F3-60E4-474A-B78A-4E4CBF34BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="33440" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
     <sheet name="Grafik" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Daten!$G$3:$G$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Daten!$J$4:$J$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Daten!$G$3:$G$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Daten!$J$4:$J$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,6 +38,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1050,7 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1074,9 +1102,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1110,9 +1135,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,6 +1179,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1189,40 +1238,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1263,36 +1285,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1304,6 +1296,921 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ABC-Analyse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Daten!$J$4:$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Daten!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36494043012393584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70829836169215499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83910138324195283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89632770516998939</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92330582836463515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94728638231543139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96407277008098879</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97939852410590678</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99247882626088657</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4E5-E743-A1EC-4C739D550CFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="842227792"/>
+        <c:axId val="842229440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="842227792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842229440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="842229440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842227792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1502,6 +2409,42 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819411</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>920315</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>84202</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C626E858-0F85-2DC8-F8F1-61CB8964ABFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1807,7 +2750,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1818,18 +2761,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1838,7 +2781,7 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1853,7 +2796,7 @@
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1867,227 +2810,242 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="32">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="30">
         <v>0</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="33">
+      <c r="H3" s="28"/>
+      <c r="I3" s="31">
         <v>0</v>
       </c>
-      <c r="J3" s="31"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="35">
         <v>93</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="38">
         <v>3600</v>
       </c>
-      <c r="D4" s="38">
-        <f>B4*C4</f>
+      <c r="D4" s="36">
+        <f t="shared" ref="D4:D13" si="0">B4*C4</f>
         <v>334800</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="44">
         <f>(D4/$D$14)</f>
         <v>0.36494043012393584</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="43">
         <f>G3+F4</f>
         <v>0.36494043012393584</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>0.1</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="32">
         <f>I3+H4</f>
         <v>0.1</v>
       </c>
-      <c r="J4" s="19">
-        <f>AREAS(F4)</f>
-        <v>1</v>
+      <c r="J4" s="18" t="str" cm="1">
+        <f t="array" ref="J4">_xlfn.IFS(F4&lt;0.2,"C",F4&lt;0.7,"B",F4&gt;0.7,"A")</f>
+        <v>B</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>150</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>2100</v>
       </c>
-      <c r="D5" s="38">
-        <f>B5*C5</f>
+      <c r="D5" s="36">
+        <f t="shared" si="0"/>
         <v>315000</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
       </c>
-      <c r="F5" s="63">
-        <f t="shared" ref="F5:F13" si="0">(D5/$D$14)</f>
+      <c r="F5" s="44">
+        <f t="shared" ref="F5:F13" si="1">(D5/$D$14)</f>
         <v>0.3433579315682192</v>
       </c>
-      <c r="G5" s="62">
-        <f t="shared" ref="G5:G13" si="1">G4+F5</f>
+      <c r="G5" s="43">
+        <f t="shared" ref="G5:G13" si="2">G4+F5</f>
         <v>0.70829836169215499</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>0.1</v>
       </c>
-      <c r="I5" s="34">
-        <f t="shared" ref="I5:I14" si="2">I4+H5</f>
+      <c r="I5" s="32">
+        <f t="shared" ref="I5:I13" si="3">I4+H5</f>
         <v>0.2</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="18" t="str" cm="1">
+        <f t="array" ref="J5">_xlfn.IFS(F5&lt;0.2,"C",F5&lt;0.7,"B",F5&gt;0.7,"A")</f>
+        <v>B</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>100</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>1200</v>
       </c>
-      <c r="D6" s="38">
-        <f>B6*C6</f>
+      <c r="D6" s="36">
+        <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
       </c>
-      <c r="F6" s="63">
-        <f t="shared" si="0"/>
+      <c r="F6" s="44">
+        <f t="shared" si="1"/>
         <v>0.13080302154979781</v>
       </c>
-      <c r="G6" s="62">
-        <f t="shared" si="1"/>
+      <c r="G6" s="43">
+        <f t="shared" si="2"/>
         <v>0.83910138324195283</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>0.1</v>
       </c>
-      <c r="I6" s="34">
-        <f t="shared" si="2"/>
+      <c r="I6" s="32">
+        <f t="shared" si="3"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="18" t="str" cm="1">
+        <f t="array" ref="J6">_xlfn.IFS(F6&lt;0.2,"C",F6&lt;0.7,"B",F6&gt;0.7,"A")</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>50</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>1050</v>
       </c>
-      <c r="D7" s="38">
-        <f>B7*C7</f>
+      <c r="D7" s="36">
+        <f t="shared" si="0"/>
         <v>52500</v>
       </c>
       <c r="E7" s="7">
         <v>4</v>
       </c>
-      <c r="F7" s="63">
-        <f t="shared" si="0"/>
+      <c r="F7" s="44">
+        <f t="shared" si="1"/>
         <v>5.722632192803654E-2</v>
       </c>
-      <c r="G7" s="62">
-        <f t="shared" si="1"/>
+      <c r="G7" s="43">
+        <f t="shared" si="2"/>
         <v>0.89632770516998939</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>0.1</v>
       </c>
-      <c r="I7" s="34">
-        <f t="shared" si="2"/>
+      <c r="I7" s="32">
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="18" t="str" cm="1">
+        <f t="array" ref="J7">_xlfn.IFS(F7&lt;0.2,"C",F7&lt;0.7,"B",F7&gt;0.7,"A")</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>45</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>550</v>
       </c>
-      <c r="D8" s="38">
-        <f>B8*C8</f>
+      <c r="D8" s="36">
+        <f t="shared" si="0"/>
         <v>24750</v>
       </c>
       <c r="E8" s="7">
         <v>5</v>
       </c>
-      <c r="F8" s="63">
-        <f t="shared" si="0"/>
+      <c r="F8" s="44">
+        <f t="shared" si="1"/>
         <v>2.6978123194645796E-2</v>
       </c>
-      <c r="G8" s="62">
-        <f t="shared" si="1"/>
+      <c r="G8" s="43">
+        <f t="shared" si="2"/>
         <v>0.92330582836463515</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>0.1</v>
       </c>
-      <c r="I8" s="34">
-        <f t="shared" si="2"/>
+      <c r="I8" s="32">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="18" t="str" cm="1">
+        <f t="array" ref="J8">_xlfn.IFS(F8&lt;0.2,"C",F8&lt;0.7,"B",F8&gt;0.7,"A")</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>20</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>1100</v>
       </c>
-      <c r="D9" s="38">
-        <f>B9*C9</f>
+      <c r="D9" s="36">
+        <f t="shared" si="0"/>
         <v>22000</v>
       </c>
       <c r="E9" s="7">
         <v>6</v>
       </c>
-      <c r="F9" s="63">
-        <f t="shared" si="0"/>
+      <c r="F9" s="44">
+        <f t="shared" si="1"/>
         <v>2.3980553950796263E-2</v>
       </c>
-      <c r="G9" s="62">
-        <f t="shared" si="1"/>
+      <c r="G9" s="43">
+        <f t="shared" si="2"/>
         <v>0.94728638231543139</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>0.1</v>
       </c>
-      <c r="I9" s="34">
-        <f t="shared" si="2"/>
+      <c r="I9" s="32">
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="18" t="str" cm="1">
+        <f t="array" ref="J9">_xlfn.IFS(F9&lt;0.2,"C",F9&lt;0.7,"B",F9&gt;0.7,"A")</f>
+        <v>C</v>
+      </c>
       <c r="L9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2096,160 +3054,172 @@
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>70</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>220</v>
       </c>
-      <c r="D10" s="38">
-        <f>B10*C10</f>
+      <c r="D10" s="36">
+        <f t="shared" si="0"/>
         <v>15400</v>
       </c>
       <c r="E10" s="7">
         <v>7</v>
       </c>
-      <c r="F10" s="63">
-        <f t="shared" si="0"/>
+      <c r="F10" s="44">
+        <f t="shared" si="1"/>
         <v>1.6786387765557385E-2</v>
       </c>
-      <c r="G10" s="62">
-        <f t="shared" si="1"/>
+      <c r="G10" s="43">
+        <f t="shared" si="2"/>
         <v>0.96407277008098879</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>0.1</v>
       </c>
-      <c r="I10" s="34">
-        <f t="shared" si="2"/>
+      <c r="I10" s="32">
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="18" t="str" cm="1">
+        <f t="array" ref="J10">_xlfn.IFS(F10&lt;0.2,"C",F10&lt;0.7,"B",F10&gt;0.7,"A")</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>38</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>370</v>
       </c>
-      <c r="D11" s="38">
-        <f>B11*C11</f>
+      <c r="D11" s="36">
+        <f t="shared" si="0"/>
         <v>14060</v>
       </c>
       <c r="E11" s="7">
         <v>8</v>
       </c>
-      <c r="F11" s="63">
-        <f t="shared" si="0"/>
+      <c r="F11" s="44">
+        <f t="shared" si="1"/>
         <v>1.5325754024917976E-2</v>
       </c>
-      <c r="G11" s="62">
-        <f t="shared" si="1"/>
+      <c r="G11" s="43">
+        <f t="shared" si="2"/>
         <v>0.97939852410590678</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>0.1</v>
       </c>
-      <c r="I11" s="34">
-        <f t="shared" si="2"/>
+      <c r="I11" s="32">
+        <f t="shared" si="3"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="18" t="str" cm="1">
+        <f t="array" ref="J11">_xlfn.IFS(F11&lt;0.2,"C",F11&lt;0.7,"B",F11&gt;0.7,"A")</f>
+        <v>C</v>
+      </c>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>15</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>800</v>
       </c>
-      <c r="D12" s="38">
-        <f>B12*C12</f>
+      <c r="D12" s="36">
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="E12" s="7">
         <v>9</v>
       </c>
-      <c r="F12" s="63">
-        <f t="shared" si="0"/>
+      <c r="F12" s="44">
+        <f t="shared" si="1"/>
         <v>1.3080302154979779E-2</v>
       </c>
-      <c r="G12" s="62">
-        <f t="shared" si="1"/>
+      <c r="G12" s="43">
+        <f t="shared" si="2"/>
         <v>0.99247882626088657</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>0.1</v>
       </c>
-      <c r="I12" s="34">
-        <f t="shared" si="2"/>
+      <c r="I12" s="32">
+        <f t="shared" si="3"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="18" t="str" cm="1">
+        <f t="array" ref="J12">_xlfn.IFS(F12&lt;0.2,"C",F12&lt;0.7,"B",F12&gt;0.7,"A")</f>
+        <v>C</v>
+      </c>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>30</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>230</v>
       </c>
-      <c r="D13" s="38">
-        <f>B13*C13</f>
+      <c r="D13" s="36">
+        <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>10</v>
       </c>
-      <c r="F13" s="63">
-        <f t="shared" si="0"/>
+      <c r="F13" s="44">
+        <f t="shared" si="1"/>
         <v>7.5211737391133737E-3</v>
       </c>
-      <c r="G13" s="62">
-        <f t="shared" si="1"/>
+      <c r="G13" s="43">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>0.1</v>
       </c>
-      <c r="I13" s="34">
-        <f t="shared" si="2"/>
+      <c r="I13" s="32">
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="J13" s="25"/>
+      <c r="J13" s="18" t="str" cm="1">
+        <f t="array" ref="J13">_xlfn.IFS(F13&lt;0.2,"C",F13&lt;0.7,"B",F13&gt;0.7,"A")</f>
+        <v>C</v>
+      </c>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="61">
+      <c r="B14" s="19"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="42">
         <f>SUM(D4:D13)</f>
         <v>917410</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43">
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41">
         <f>SUM(H4:H13)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2265,154 +3235,154 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="29" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="46"/>
-      <c r="O16" s="27"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
       <c r="L19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="L21" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:12" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:12" ht="56.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="L24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="46.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2429,17 +3399,17 @@
     <sortCondition descending="1" ref="D4:D14"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A25:J25"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G13">
     <cfRule type="expression" dxfId="3" priority="5">
